--- a/data/sysml2/3/result/EnvironmentElement.xlsx
+++ b/data/sysml2/3/result/EnvironmentElement.xlsx
@@ -569,7 +569,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>气象</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -595,7 +595,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>气象</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -633,7 +633,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>气象</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -667,7 +667,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>气象</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>气象</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -730,7 +730,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>气象</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>气象</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -793,7 +793,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>气象</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>气象</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -856,7 +856,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>气象</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>气象</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>气象</t>
         </is>
       </c>
     </row>
@@ -943,12 +943,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>"大雪"</t>
+          <t>""</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>气象</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -977,12 +977,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>"大雪"</t>
+          <t>""</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>气象</t>
         </is>
       </c>
     </row>

--- a/data/sysml2/3/result/EnvironmentElement.xlsx
+++ b/data/sysml2/3/result/EnvironmentElement.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,20 +564,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>item</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>气象</t>
+          <t>Lane</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>EnvironmentElement</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -590,20 +586,16 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>item</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>气象</t>
+          <t>Lane</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>EnvironmentElement</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -611,31 +603,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>item</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WeatherType</t>
+          <t>Facility</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Enum</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>"晴天"</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>气象</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -645,60 +625,40 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>item</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WeatherType</t>
+          <t>Facility</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Enum</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>"晴天"</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>气象</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rainfall</t>
+          <t>hoa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>气象</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>EnvironmentElement</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -708,60 +668,44 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rainfall</t>
+          <t>hoa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>气象</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>EnvironmentElement</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Visibility</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>气象</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>EnvironmentElement</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -771,60 +715,44 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Visibility</t>
+          <t>Road</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>气象</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>EnvironmentElement</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WindSpeed</t>
+          <t>Meteorology</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>气象</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>EnvironmentElement</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -834,31 +762,23 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WindSpeed</t>
+          <t>Meteorology</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>气象</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>EnvironmentElement</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -868,14 +788,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WindForce</t>
+          <t>RoadName</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Real</t>
+          <t>String</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -885,7 +805,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>气象</t>
+          <t>hoa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -902,14 +822,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WindForce</t>
+          <t>RoadName</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Real</t>
+          <t>String</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -919,7 +839,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>气象</t>
+          <t>hoa</t>
         </is>
       </c>
     </row>
@@ -931,7 +851,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SnowfallIntensity</t>
+          <t>RoadType</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -943,12 +863,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>"主路"</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>气象</t>
+          <t>hoa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -965,7 +885,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SnowfallIntensity</t>
+          <t>RoadType</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -977,12 +897,1256 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>""</t>
+          <t>"主路"</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>气象</t>
+          <t>hoa</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NumberOfLanes</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>NumberOfLanes</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TrafficVolume</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TrafficVolume</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SegmentStartStakeNumber</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SegmentStartStakeNumber</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SegmentEndStakeNumber</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SegmentEndStakeNumber</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DesignSpeed</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DesignSpeed</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ClosureCondition</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ClosureCondition</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>RoadDamageCondition</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>RoadDamageCondition</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PollutionCondition</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>PollutionCondition</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>RoadMaintenanceConditon</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>RoadMaintenanceConditon</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>RoadConstrucetionCondition</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>RoadConstrucetionCondition</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>TravelTime</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>TravelTime</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TrafficCapacity</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TrafficCapacity</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SpeedLimit</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SpeedLimit</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>hoa</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>WeatherType</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Enum</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>"晴天"</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Meteorology</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>WeatherType</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Enum</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>"晴天"</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Meteorology</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Rainfall</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>"0.0"</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Meteorology</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Rainfall</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>"0.0"</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Meteorology</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Visibility</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>"23.0"</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Meteorology</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Visibility</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>"23.0"</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Meteorology</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>WindSpeed</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>"8.0"</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Meteorology</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>WindSpeed</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>"8.0"</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Meteorology</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>WindForce</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>"23"</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Meteorology</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>WindForce</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>"23"</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Meteorology</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>SnowfallIntensity</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Enum</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Meteorology</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>SnowfallIntensity</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Enum</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Meteorology</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Road</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Meteorology</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Road</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Meteorology</t>
         </is>
       </c>
     </row>
